--- a/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2018.xlsx
+++ b/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2018.xlsx
@@ -3,343 +3,340 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0191
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+  <si>
+    <t>0191
 Agricultura, inclusive o apoio à agricultura e a pós-colheita</t>
   </si>
   <si>
-    <t xml:space="preserve">0192
+    <t>0192
 Pecuária, inclusive o apoio à pecuária</t>
   </si>
   <si>
-    <t xml:space="preserve">0280
+    <t>0280
 Produção florestal; pesca e aquicultura</t>
   </si>
   <si>
-    <t xml:space="preserve">0580
+    <t>0580
 Extração de carvão mineral e de minerais não-metálicos</t>
   </si>
   <si>
-    <t xml:space="preserve">0680
+    <t>0680
 Extração de petróleo e gás, inclusive as atividades de apoio</t>
   </si>
   <si>
-    <t xml:space="preserve">0791
+    <t>0791
 Extração de minério de ferro, inclusive beneficiamentos e a aglomeração</t>
   </si>
   <si>
-    <t xml:space="preserve">0792
+    <t>0792
 Extração de minerais metálicos não-ferrosos, inclusive beneficiamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">1091
+    <t>1091
 Abate e produtos de carne, inclusive os produtos do laticínio e da pesca</t>
   </si>
   <si>
-    <t xml:space="preserve">1092
+    <t>1092
 Fabricação e refino de açúcar</t>
   </si>
   <si>
-    <t xml:space="preserve">1093
+    <t>1093
 Outros produtos alimentares</t>
   </si>
   <si>
-    <t xml:space="preserve">1100
+    <t>1100
 Fabricação de bebidas</t>
   </si>
   <si>
-    <t xml:space="preserve">1200
+    <t>1200
 Fabricação de produtos do fumo</t>
   </si>
   <si>
-    <t xml:space="preserve">1300
+    <t>1300
 Fabricação de produtos têxteis</t>
   </si>
   <si>
-    <t xml:space="preserve">1400
+    <t>1400
 Confecção de artefatos do vestuário e acessórios</t>
   </si>
   <si>
-    <t xml:space="preserve">1500
+    <t>1500
 Fabricação de calçados e de artefatos de couro</t>
   </si>
   <si>
-    <t xml:space="preserve">1600
+    <t>1600
 Fabricação de produtos da madeira</t>
   </si>
   <si>
-    <t xml:space="preserve">1700
+    <t>1700
 Fabricação de celulose, papel e produtos de papel</t>
   </si>
   <si>
-    <t xml:space="preserve">1800
+    <t>1800
 Impressão e reprodução de gravações</t>
   </si>
   <si>
-    <t xml:space="preserve">1991
+    <t>1991
 Refino de petróleo e coquerias</t>
   </si>
   <si>
-    <t xml:space="preserve">1992
+    <t>1992
 Fabricação de biocombustíveis</t>
   </si>
   <si>
-    <t xml:space="preserve">2091
+    <t>2091
 Fabricação de químicos orgânicos e inorgânicos, resinas e elastômeros</t>
   </si>
   <si>
-    <t xml:space="preserve">2092
+    <t>2092
 Fabricação de defensivos, desinfestantes, tintas e químicos diversos</t>
   </si>
   <si>
-    <t xml:space="preserve">2093
+    <t>2093
 Fabricação de produtos de limpeza, cosméticos/perfumaria e higiene pessoal</t>
   </si>
   <si>
-    <t xml:space="preserve">2100
+    <t>2100
 Fabricação de produtos farmoquímicos e farmacêuticos</t>
   </si>
   <si>
-    <t xml:space="preserve">2200
+    <t>2200
 Fabricação de produtos de borracha e de material plástico</t>
   </si>
   <si>
-    <t xml:space="preserve">2300
+    <t>2300
 Fabricação de produtos de minerais não-metálicos</t>
   </si>
   <si>
-    <t xml:space="preserve">2491
+    <t>2491
 Produção de ferro-gusa/ferroligas, siderurgia e tubos de aço sem costura</t>
   </si>
   <si>
-    <t xml:space="preserve">2492
+    <t>2492
 Metalurgia de metais não-ferrosos e a fundição de metais</t>
   </si>
   <si>
-    <t xml:space="preserve">2500
+    <t>2500
 Fabricação de produtos de metal, exceto máquinas e equipamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">2600
+    <t>2600
 Fabricação de equipamentos de informática, produtos eletrônicos e ópticos</t>
   </si>
   <si>
-    <t xml:space="preserve">2700
+    <t>2700
 Fabricação de máquinas e equipamentos elétricos</t>
   </si>
   <si>
-    <t xml:space="preserve">2800
+    <t>2800
 Fabricação de máquinas e equipamentos mecânicos</t>
   </si>
   <si>
-    <t xml:space="preserve">2991
+    <t>2991
 Fabricação de automóveis, caminhões e ônibus, exceto peças</t>
   </si>
   <si>
-    <t xml:space="preserve">2992
+    <t>2992
 Fabricação de peças e acessórios para veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">3000
+    <t>3000
 Fabricação de outros equipamentos de transporte, exceto veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">3180
+    <t>3180
 Fabricação de móveis e de produtos de indústrias diversas</t>
   </si>
   <si>
-    <t xml:space="preserve">3300
+    <t>3300
 Manutenção, reparação e instalação de máquinas e equipamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">3500
+    <t>3500
 Energia elétrica, gás natural e outras utilidades</t>
   </si>
   <si>
-    <t xml:space="preserve">3680
+    <t>3680
 Água, esgoto e gestão de resíduos</t>
   </si>
   <si>
-    <t xml:space="preserve">4180
+    <t>4180
 Construção</t>
   </si>
   <si>
-    <t xml:space="preserve">4500
+    <t>4500
 Comércio e reparação de veículos automotores e motocicletas</t>
   </si>
   <si>
-    <t xml:space="preserve">4680
+    <t>4680
 Comércio por atacado e a varejo, exceto veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">4900
+    <t>4900
 Transporte terrestre</t>
   </si>
   <si>
-    <t xml:space="preserve">5000
+    <t>5000
 Transporte aquaviário</t>
   </si>
   <si>
-    <t xml:space="preserve">5100
+    <t>5100
 Transporte aéreo</t>
   </si>
   <si>
-    <t xml:space="preserve">5280
+    <t>5280
 Armazenamento, atividades auxiliares dos transportes e correio</t>
   </si>
   <si>
-    <t xml:space="preserve">5500
+    <t>5500
 Alojamento</t>
   </si>
   <si>
-    <t xml:space="preserve">5600
+    <t>5600
 Alimentação</t>
   </si>
   <si>
-    <t xml:space="preserve">5800
+    <t>5800
 Edição e edição integrada à impressão</t>
   </si>
   <si>
-    <t xml:space="preserve">5980
+    <t>5980
 Atividades de televisão, rádio, cinema e  gravação/edição de som e imagem</t>
   </si>
   <si>
-    <t xml:space="preserve">6100
+    <t>6100
 Telecomunicações</t>
   </si>
   <si>
-    <t xml:space="preserve">6280
+    <t>6280
 Desenvolvimento de sistemas e outros serviços de informação</t>
   </si>
   <si>
-    <t xml:space="preserve">6480
+    <t>6480
 Intermediação financeira, seguros e previdência complementar</t>
   </si>
   <si>
-    <t xml:space="preserve">6800
+    <t>6800
 Atividades imobiliárias</t>
   </si>
   <si>
-    <t xml:space="preserve">6980
+    <t>6980
 Atividades jurídicas, contábeis, consultoria e sedes de empresas</t>
   </si>
   <si>
-    <t xml:space="preserve">7180
+    <t>7180
 Serviços de arquitetura, engenharia, testes/análises técnicas e P &amp; D</t>
   </si>
   <si>
-    <t xml:space="preserve">7380
+    <t>7380
 Outras atividades profissionais, científicas e técnicas</t>
   </si>
   <si>
-    <t xml:space="preserve">7700
+    <t>7700
 Aluguéis não-imobiliários e gestão de ativos de propriedade intelectual</t>
   </si>
   <si>
-    <t xml:space="preserve">7880
+    <t>7880
 Outras atividades administrativas e serviços complementares</t>
   </si>
   <si>
-    <t xml:space="preserve">8000
+    <t>8000
 Atividades de vigilância, segurança e investigação</t>
   </si>
   <si>
-    <t xml:space="preserve">8400
+    <t>8400
 Administração pública, defesa e seguridade social</t>
   </si>
   <si>
-    <t xml:space="preserve">8591
+    <t>8591
 Educação pública</t>
   </si>
   <si>
-    <t xml:space="preserve">8592
+    <t>8592
 Educação privada</t>
   </si>
   <si>
-    <t xml:space="preserve">8691
+    <t>8691
 Saúde pública</t>
   </si>
   <si>
-    <t xml:space="preserve">8692
+    <t>8692
 Saúde privada</t>
   </si>
   <si>
-    <t xml:space="preserve">9080
+    <t>9080
 Atividades artísticas, criativas e de espetáculos</t>
   </si>
   <si>
-    <t xml:space="preserve">9480
+    <t>9480
 Organizações associativas e outros serviços pessoais</t>
   </si>
   <si>
-    <t xml:space="preserve">9700
+    <t>9700
 Serviços domésticos</t>
   </si>
   <si>
-    <t xml:space="preserve">Valor adicionado bruto ( PIB )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remunerações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salários</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contribuições sociais efetivas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previdência oficial /FGTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previdência privada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contribuições sociais imputadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excedente operacional bruto e rendimento misto bruto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rendimento misto bruto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excedente operacional bruto (EOB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outros impostos sobre a produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outros subsídios à produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor da produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fator trabalho (ocupações)</t>
+    <t>Valor adicionado bruto ( PIB )</t>
+  </si>
+  <si>
+    <t>Remunerações</t>
+  </si>
+  <si>
+    <t>Salários</t>
+  </si>
+  <si>
+    <t>Contribuições sociais efetivas</t>
+  </si>
+  <si>
+    <t>Previdência oficial /FGTS</t>
+  </si>
+  <si>
+    <t>Previdência privada</t>
+  </si>
+  <si>
+    <t>Contribuições sociais imputadas</t>
+  </si>
+  <si>
+    <t>Excedente operacional bruto e rendimento misto bruto</t>
+  </si>
+  <si>
+    <t>Rendimento misto bruto</t>
+  </si>
+  <si>
+    <t>Excedente operacional bruto (EOB)</t>
+  </si>
+  <si>
+    <t>Outros impostos sobre a produção</t>
+  </si>
+  <si>
+    <t>Outros subsídios à produção</t>
+  </si>
+  <si>
+    <t>Valor da produção</t>
+  </si>
+  <si>
+    <t>Fator trabalho (ocupações)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -350,7 +347,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -368,3435 +365,3151 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1"/>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>67</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="n">
-        <v>209511</v>
+        <v>209511.0</v>
       </c>
       <c r="C2" t="n">
-        <v>71692</v>
+        <v>71692.0</v>
       </c>
       <c r="D2" t="n">
-        <v>28408</v>
+        <v>28408.0</v>
       </c>
       <c r="E2" t="n">
-        <v>8151</v>
+        <v>8151.0</v>
       </c>
       <c r="F2" t="n">
-        <v>100760</v>
+        <v>100760.0</v>
       </c>
       <c r="G2" t="n">
-        <v>45134</v>
+        <v>45134.0</v>
       </c>
       <c r="H2" t="n">
-        <v>7024</v>
+        <v>7024.0</v>
       </c>
       <c r="I2" t="n">
-        <v>45831</v>
+        <v>45831.0</v>
       </c>
       <c r="J2" t="n">
-        <v>8424</v>
+        <v>8424.0</v>
       </c>
       <c r="K2" t="n">
-        <v>66028</v>
+        <v>66028.0</v>
       </c>
       <c r="L2" t="n">
-        <v>22080</v>
+        <v>22080.0</v>
       </c>
       <c r="M2" t="n">
-        <v>3582</v>
+        <v>3582.0</v>
       </c>
       <c r="N2" t="n">
-        <v>16047</v>
+        <v>16047.0</v>
       </c>
       <c r="O2" t="n">
-        <v>28404</v>
+        <v>28404.0</v>
       </c>
       <c r="P2" t="n">
-        <v>15570</v>
+        <v>15570.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>11759</v>
+        <v>11759.0</v>
       </c>
       <c r="R2" t="n">
-        <v>31780</v>
+        <v>31780.0</v>
       </c>
       <c r="S2" t="n">
-        <v>10260</v>
+        <v>10260.0</v>
       </c>
       <c r="T2" t="n">
-        <v>42336</v>
+        <v>42336.0</v>
       </c>
       <c r="U2" t="n">
-        <v>11524</v>
+        <v>11524.0</v>
       </c>
       <c r="V2" t="n">
-        <v>26696</v>
+        <v>26696.0</v>
       </c>
       <c r="W2" t="n">
-        <v>15252</v>
+        <v>15252.0</v>
       </c>
       <c r="X2" t="n">
-        <v>10920</v>
+        <v>10920.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>34789</v>
+        <v>34789.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>29645</v>
+        <v>29645.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>24757</v>
+        <v>24757.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>34177</v>
+        <v>34177.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>15846</v>
+        <v>15846.0</v>
       </c>
       <c r="AD2" t="n">
-        <v>33343</v>
+        <v>33343.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>15600</v>
+        <v>15600.0</v>
       </c>
       <c r="AF2" t="n">
-        <v>20034</v>
+        <v>20034.0</v>
       </c>
       <c r="AG2" t="n">
-        <v>37543</v>
+        <v>37543.0</v>
       </c>
       <c r="AH2" t="n">
-        <v>23213</v>
+        <v>23213.0</v>
       </c>
       <c r="AI2" t="n">
-        <v>30066</v>
+        <v>30066.0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10679</v>
+        <v>10679.0</v>
       </c>
       <c r="AK2" t="n">
-        <v>32728</v>
+        <v>32728.0</v>
       </c>
       <c r="AL2" t="n">
-        <v>28515</v>
+        <v>28515.0</v>
       </c>
       <c r="AM2" t="n">
-        <v>121094</v>
+        <v>121094.0</v>
       </c>
       <c r="AN2" t="n">
-        <v>50339</v>
+        <v>50339.0</v>
       </c>
       <c r="AO2" t="n">
-        <v>243280</v>
+        <v>243280.0</v>
       </c>
       <c r="AP2" t="n">
-        <v>97878</v>
+        <v>97878.0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>685169</v>
+        <v>685169.0</v>
       </c>
       <c r="AR2" t="n">
-        <v>165215</v>
+        <v>165215.0</v>
       </c>
       <c r="AS2" t="n">
-        <v>10075</v>
+        <v>10075.0</v>
       </c>
       <c r="AT2" t="n">
-        <v>9954</v>
+        <v>9954.0</v>
       </c>
       <c r="AU2" t="n">
-        <v>79420</v>
+        <v>79420.0</v>
       </c>
       <c r="AV2" t="n">
-        <v>14822</v>
+        <v>14822.0</v>
       </c>
       <c r="AW2" t="n">
-        <v>130511</v>
+        <v>130511.0</v>
       </c>
       <c r="AX2" t="n">
-        <v>8612</v>
+        <v>8612.0</v>
       </c>
       <c r="AY2" t="n">
-        <v>16988</v>
+        <v>16988.0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>69944</v>
+        <v>69944.0</v>
       </c>
       <c r="BA2" t="n">
-        <v>110549</v>
+        <v>110549.0</v>
       </c>
       <c r="BB2" t="n">
-        <v>422662</v>
+        <v>422662.0</v>
       </c>
       <c r="BC2" t="n">
-        <v>588036</v>
+        <v>588036.0</v>
       </c>
       <c r="BD2" t="n">
-        <v>156875</v>
+        <v>156875.0</v>
       </c>
       <c r="BE2" t="n">
-        <v>38999</v>
+        <v>38999.0</v>
       </c>
       <c r="BF2" t="n">
-        <v>38814</v>
+        <v>38814.0</v>
       </c>
       <c r="BG2" t="n">
-        <v>30151</v>
+        <v>30151.0</v>
       </c>
       <c r="BH2" t="n">
-        <v>176659</v>
+        <v>176659.0</v>
       </c>
       <c r="BI2" t="n">
-        <v>35115</v>
+        <v>35115.0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>616023</v>
+        <v>616023.0</v>
       </c>
       <c r="BK2" t="n">
-        <v>295133</v>
+        <v>295133.0</v>
       </c>
       <c r="BL2" t="n">
-        <v>102884</v>
+        <v>102884.0</v>
       </c>
       <c r="BM2" t="n">
-        <v>134229</v>
+        <v>134229.0</v>
       </c>
       <c r="BN2" t="n">
-        <v>169778</v>
+        <v>169778.0</v>
       </c>
       <c r="BO2" t="n">
-        <v>22984</v>
+        <v>22984.0</v>
       </c>
       <c r="BP2" t="n">
-        <v>86399</v>
+        <v>86399.0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>74451</v>
+        <v>74451.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="n">
-        <v>34356</v>
+        <v>34356.0</v>
       </c>
       <c r="C3" t="n">
-        <v>22217</v>
+        <v>22217.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2255</v>
+        <v>2255.0</v>
       </c>
       <c r="E3" t="n">
-        <v>4126</v>
+        <v>4126.0</v>
       </c>
       <c r="F3" t="n">
-        <v>16917</v>
+        <v>16917.0</v>
       </c>
       <c r="G3" t="n">
-        <v>4502</v>
+        <v>4502.0</v>
       </c>
       <c r="H3" t="n">
-        <v>2607</v>
+        <v>2607.0</v>
       </c>
       <c r="I3" t="n">
-        <v>30117</v>
+        <v>30117.0</v>
       </c>
       <c r="J3" t="n">
-        <v>8690</v>
+        <v>8690.0</v>
       </c>
       <c r="K3" t="n">
-        <v>35422</v>
+        <v>35422.0</v>
       </c>
       <c r="L3" t="n">
-        <v>9953</v>
+        <v>9953.0</v>
       </c>
       <c r="M3" t="n">
-        <v>1711</v>
+        <v>1711.0</v>
       </c>
       <c r="N3" t="n">
-        <v>11262</v>
+        <v>11262.0</v>
       </c>
       <c r="O3" t="n">
-        <v>18543</v>
+        <v>18543.0</v>
       </c>
       <c r="P3" t="n">
-        <v>11048</v>
+        <v>11048.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6644</v>
+        <v>6644.0</v>
       </c>
       <c r="R3" t="n">
-        <v>14028</v>
+        <v>14028.0</v>
       </c>
       <c r="S3" t="n">
-        <v>5664</v>
+        <v>5664.0</v>
       </c>
       <c r="T3" t="n">
-        <v>8892</v>
+        <v>8892.0</v>
       </c>
       <c r="U3" t="n">
-        <v>7013</v>
+        <v>7013.0</v>
       </c>
       <c r="V3" t="n">
-        <v>12903</v>
+        <v>12903.0</v>
       </c>
       <c r="W3" t="n">
-        <v>9380</v>
+        <v>9380.0</v>
       </c>
       <c r="X3" t="n">
-        <v>6854</v>
+        <v>6854.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>12695</v>
+        <v>12695.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>22917</v>
+        <v>22917.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>19150</v>
+        <v>19150.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>13401</v>
+        <v>13401.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>6247</v>
+        <v>6247.0</v>
       </c>
       <c r="AD3" t="n">
-        <v>22042</v>
+        <v>22042.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>9775</v>
+        <v>9775.0</v>
       </c>
       <c r="AF3" t="n">
-        <v>14631</v>
+        <v>14631.0</v>
       </c>
       <c r="AG3" t="n">
-        <v>27620</v>
+        <v>27620.0</v>
       </c>
       <c r="AH3" t="n">
-        <v>20483</v>
+        <v>20483.0</v>
       </c>
       <c r="AI3" t="n">
-        <v>20855</v>
+        <v>20855.0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8257</v>
+        <v>8257.0</v>
       </c>
       <c r="AK3" t="n">
-        <v>16648</v>
+        <v>16648.0</v>
       </c>
       <c r="AL3" t="n">
-        <v>13057</v>
+        <v>13057.0</v>
       </c>
       <c r="AM3" t="n">
-        <v>21495</v>
+        <v>21495.0</v>
       </c>
       <c r="AN3" t="n">
-        <v>22993</v>
+        <v>22993.0</v>
       </c>
       <c r="AO3" t="n">
-        <v>104570</v>
+        <v>104570.0</v>
       </c>
       <c r="AP3" t="n">
-        <v>49181</v>
+        <v>49181.0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>352528</v>
+        <v>352528.0</v>
       </c>
       <c r="AR3" t="n">
-        <v>87877</v>
+        <v>87877.0</v>
       </c>
       <c r="AS3" t="n">
-        <v>5137</v>
+        <v>5137.0</v>
       </c>
       <c r="AT3" t="n">
-        <v>7492</v>
+        <v>7492.0</v>
       </c>
       <c r="AU3" t="n">
-        <v>44037</v>
+        <v>44037.0</v>
       </c>
       <c r="AV3" t="n">
-        <v>11307</v>
+        <v>11307.0</v>
       </c>
       <c r="AW3" t="n">
-        <v>60116</v>
+        <v>60116.0</v>
       </c>
       <c r="AX3" t="n">
-        <v>6798</v>
+        <v>6798.0</v>
       </c>
       <c r="AY3" t="n">
-        <v>11678</v>
+        <v>11678.0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19212</v>
+        <v>19212.0</v>
       </c>
       <c r="BA3" t="n">
-        <v>57187</v>
+        <v>57187.0</v>
       </c>
       <c r="BB3" t="n">
-        <v>165217</v>
+        <v>165217.0</v>
       </c>
       <c r="BC3" t="n">
-        <v>7923</v>
+        <v>7923.0</v>
       </c>
       <c r="BD3" t="n">
-        <v>61939</v>
+        <v>61939.0</v>
       </c>
       <c r="BE3" t="n">
-        <v>18585</v>
+        <v>18585.0</v>
       </c>
       <c r="BF3" t="n">
-        <v>15429</v>
+        <v>15429.0</v>
       </c>
       <c r="BG3" t="n">
-        <v>11344</v>
+        <v>11344.0</v>
       </c>
       <c r="BH3" t="n">
-        <v>118404</v>
+        <v>118404.0</v>
       </c>
       <c r="BI3" t="n">
-        <v>31074</v>
+        <v>31074.0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>528703</v>
+        <v>528703.0</v>
       </c>
       <c r="BK3" t="n">
-        <v>282090</v>
+        <v>282090.0</v>
       </c>
       <c r="BL3" t="n">
-        <v>89933</v>
+        <v>89933.0</v>
       </c>
       <c r="BM3" t="n">
-        <v>127700</v>
+        <v>127700.0</v>
       </c>
       <c r="BN3" t="n">
-        <v>89831</v>
+        <v>89831.0</v>
       </c>
       <c r="BO3" t="n">
-        <v>13265</v>
+        <v>13265.0</v>
       </c>
       <c r="BP3" t="n">
-        <v>45395</v>
+        <v>45395.0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>74451</v>
+        <v>74451.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="n">
-        <v>29230</v>
+        <v>29230.0</v>
       </c>
       <c r="C4" t="n">
-        <v>19506</v>
+        <v>19506.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1981</v>
+        <v>1981.0</v>
       </c>
       <c r="E4" t="n">
-        <v>3307</v>
+        <v>3307.0</v>
       </c>
       <c r="F4" t="n">
-        <v>12359</v>
+        <v>12359.0</v>
       </c>
       <c r="G4" t="n">
-        <v>3581</v>
+        <v>3581.0</v>
       </c>
       <c r="H4" t="n">
-        <v>2011</v>
+        <v>2011.0</v>
       </c>
       <c r="I4" t="n">
-        <v>23432</v>
+        <v>23432.0</v>
       </c>
       <c r="J4" t="n">
-        <v>6252</v>
+        <v>6252.0</v>
       </c>
       <c r="K4" t="n">
-        <v>27911</v>
+        <v>27911.0</v>
       </c>
       <c r="L4" t="n">
-        <v>7718</v>
+        <v>7718.0</v>
       </c>
       <c r="M4" t="n">
-        <v>1309</v>
+        <v>1309.0</v>
       </c>
       <c r="N4" t="n">
-        <v>9222</v>
+        <v>9222.0</v>
       </c>
       <c r="O4" t="n">
-        <v>14743</v>
+        <v>14743.0</v>
       </c>
       <c r="P4" t="n">
-        <v>9151</v>
+        <v>9151.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5395</v>
+        <v>5395.0</v>
       </c>
       <c r="R4" t="n">
-        <v>11059</v>
+        <v>11059.0</v>
       </c>
       <c r="S4" t="n">
-        <v>4600</v>
+        <v>4600.0</v>
       </c>
       <c r="T4" t="n">
-        <v>6243</v>
+        <v>6243.0</v>
       </c>
       <c r="U4" t="n">
-        <v>5622</v>
+        <v>5622.0</v>
       </c>
       <c r="V4" t="n">
-        <v>9758</v>
+        <v>9758.0</v>
       </c>
       <c r="W4" t="n">
-        <v>7225</v>
+        <v>7225.0</v>
       </c>
       <c r="X4" t="n">
-        <v>5400</v>
+        <v>5400.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>9702</v>
+        <v>9702.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>17824</v>
+        <v>17824.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>15527</v>
+        <v>15527.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>10413</v>
+        <v>10413.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>5015</v>
+        <v>5015.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>17453</v>
+        <v>17453.0</v>
       </c>
       <c r="AE4" t="n">
-        <v>7775</v>
+        <v>7775.0</v>
       </c>
       <c r="AF4" t="n">
-        <v>11477</v>
+        <v>11477.0</v>
       </c>
       <c r="AG4" t="n">
-        <v>21904</v>
+        <v>21904.0</v>
       </c>
       <c r="AH4" t="n">
-        <v>15859</v>
+        <v>15859.0</v>
       </c>
       <c r="AI4" t="n">
-        <v>17465</v>
+        <v>17465.0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6659</v>
+        <v>6659.0</v>
       </c>
       <c r="AK4" t="n">
-        <v>13658</v>
+        <v>13658.0</v>
       </c>
       <c r="AL4" t="n">
-        <v>10523</v>
+        <v>10523.0</v>
       </c>
       <c r="AM4" t="n">
-        <v>15429</v>
+        <v>15429.0</v>
       </c>
       <c r="AN4" t="n">
-        <v>17320</v>
+        <v>17320.0</v>
       </c>
       <c r="AO4" t="n">
-        <v>85935</v>
+        <v>85935.0</v>
       </c>
       <c r="AP4" t="n">
-        <v>40106</v>
+        <v>40106.0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>279452</v>
+        <v>279452.0</v>
       </c>
       <c r="AR4" t="n">
-        <v>71610</v>
+        <v>71610.0</v>
       </c>
       <c r="AS4" t="n">
-        <v>4217</v>
+        <v>4217.0</v>
       </c>
       <c r="AT4" t="n">
-        <v>6119</v>
+        <v>6119.0</v>
       </c>
       <c r="AU4" t="n">
-        <v>34067</v>
+        <v>34067.0</v>
       </c>
       <c r="AV4" t="n">
-        <v>9520</v>
+        <v>9520.0</v>
       </c>
       <c r="AW4" t="n">
-        <v>50603</v>
+        <v>50603.0</v>
       </c>
       <c r="AX4" t="n">
-        <v>5563</v>
+        <v>5563.0</v>
       </c>
       <c r="AY4" t="n">
-        <v>9857</v>
+        <v>9857.0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>14372</v>
+        <v>14372.0</v>
       </c>
       <c r="BA4" t="n">
-        <v>45370</v>
+        <v>45370.0</v>
       </c>
       <c r="BB4" t="n">
-        <v>127124</v>
+        <v>127124.0</v>
       </c>
       <c r="BC4" t="n">
-        <v>6253</v>
+        <v>6253.0</v>
       </c>
       <c r="BD4" t="n">
-        <v>50719</v>
+        <v>50719.0</v>
       </c>
       <c r="BE4" t="n">
-        <v>14886</v>
+        <v>14886.0</v>
       </c>
       <c r="BF4" t="n">
-        <v>12362</v>
+        <v>12362.0</v>
       </c>
       <c r="BG4" t="n">
-        <v>8992</v>
+        <v>8992.0</v>
       </c>
       <c r="BH4" t="n">
-        <v>95075</v>
+        <v>95075.0</v>
       </c>
       <c r="BI4" t="n">
-        <v>24376</v>
+        <v>24376.0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>381003</v>
+        <v>381003.0</v>
       </c>
       <c r="BK4" t="n">
-        <v>227721</v>
+        <v>227721.0</v>
       </c>
       <c r="BL4" t="n">
-        <v>74374</v>
+        <v>74374.0</v>
       </c>
       <c r="BM4" t="n">
-        <v>102765</v>
+        <v>102765.0</v>
       </c>
       <c r="BN4" t="n">
-        <v>77743</v>
+        <v>77743.0</v>
       </c>
       <c r="BO4" t="n">
-        <v>11518</v>
+        <v>11518.0</v>
       </c>
       <c r="BP4" t="n">
-        <v>38820</v>
+        <v>38820.0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>70758</v>
+        <v>70758.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="n">
-        <v>5126</v>
+        <v>5126.0</v>
       </c>
       <c r="C5" t="n">
-        <v>2711</v>
+        <v>2711.0</v>
       </c>
       <c r="D5" t="n">
-        <v>274</v>
+        <v>274.0</v>
       </c>
       <c r="E5" t="n">
-        <v>819</v>
+        <v>819.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4558</v>
+        <v>4558.0</v>
       </c>
       <c r="G5" t="n">
-        <v>921</v>
+        <v>921.0</v>
       </c>
       <c r="H5" t="n">
-        <v>596</v>
+        <v>596.0</v>
       </c>
       <c r="I5" t="n">
-        <v>6685</v>
+        <v>6685.0</v>
       </c>
       <c r="J5" t="n">
-        <v>2438</v>
+        <v>2438.0</v>
       </c>
       <c r="K5" t="n">
-        <v>7511</v>
+        <v>7511.0</v>
       </c>
       <c r="L5" t="n">
-        <v>2235</v>
+        <v>2235.0</v>
       </c>
       <c r="M5" t="n">
-        <v>402</v>
+        <v>402.0</v>
       </c>
       <c r="N5" t="n">
-        <v>2040</v>
+        <v>2040.0</v>
       </c>
       <c r="O5" t="n">
-        <v>3800</v>
+        <v>3800.0</v>
       </c>
       <c r="P5" t="n">
-        <v>1897</v>
+        <v>1897.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1249</v>
+        <v>1249.0</v>
       </c>
       <c r="R5" t="n">
-        <v>2969</v>
+        <v>2969.0</v>
       </c>
       <c r="S5" t="n">
-        <v>1064</v>
+        <v>1064.0</v>
       </c>
       <c r="T5" t="n">
-        <v>2649</v>
+        <v>2649.0</v>
       </c>
       <c r="U5" t="n">
-        <v>1391</v>
+        <v>1391.0</v>
       </c>
       <c r="V5" t="n">
-        <v>3145</v>
+        <v>3145.0</v>
       </c>
       <c r="W5" t="n">
-        <v>2155</v>
+        <v>2155.0</v>
       </c>
       <c r="X5" t="n">
-        <v>1454</v>
+        <v>1454.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2993</v>
+        <v>2993.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>5093</v>
+        <v>5093.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>3623</v>
+        <v>3623.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>2988</v>
+        <v>2988.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1232</v>
+        <v>1232.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>4589</v>
+        <v>4589.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>2000</v>
+        <v>2000.0</v>
       </c>
       <c r="AF5" t="n">
-        <v>3154</v>
+        <v>3154.0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5716</v>
+        <v>5716.0</v>
       </c>
       <c r="AH5" t="n">
-        <v>4624</v>
+        <v>4624.0</v>
       </c>
       <c r="AI5" t="n">
-        <v>3390</v>
+        <v>3390.0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1598</v>
+        <v>1598.0</v>
       </c>
       <c r="AK5" t="n">
-        <v>2990</v>
+        <v>2990.0</v>
       </c>
       <c r="AL5" t="n">
-        <v>2534</v>
+        <v>2534.0</v>
       </c>
       <c r="AM5" t="n">
-        <v>6066</v>
+        <v>6066.0</v>
       </c>
       <c r="AN5" t="n">
-        <v>5673</v>
+        <v>5673.0</v>
       </c>
       <c r="AO5" t="n">
-        <v>18635</v>
+        <v>18635.0</v>
       </c>
       <c r="AP5" t="n">
-        <v>9075</v>
+        <v>9075.0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>73076</v>
+        <v>73076.0</v>
       </c>
       <c r="AR5" t="n">
-        <v>16267</v>
+        <v>16267.0</v>
       </c>
       <c r="AS5" t="n">
-        <v>920</v>
+        <v>920.0</v>
       </c>
       <c r="AT5" t="n">
-        <v>1373</v>
+        <v>1373.0</v>
       </c>
       <c r="AU5" t="n">
-        <v>9970</v>
+        <v>9970.0</v>
       </c>
       <c r="AV5" t="n">
-        <v>1787</v>
+        <v>1787.0</v>
       </c>
       <c r="AW5" t="n">
-        <v>9513</v>
+        <v>9513.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>1235</v>
+        <v>1235.0</v>
       </c>
       <c r="AY5" t="n">
-        <v>1821</v>
+        <v>1821.0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4840</v>
+        <v>4840.0</v>
       </c>
       <c r="BA5" t="n">
-        <v>11817</v>
+        <v>11817.0</v>
       </c>
       <c r="BB5" t="n">
-        <v>38093</v>
+        <v>38093.0</v>
       </c>
       <c r="BC5" t="n">
-        <v>1670</v>
+        <v>1670.0</v>
       </c>
       <c r="BD5" t="n">
-        <v>11220</v>
+        <v>11220.0</v>
       </c>
       <c r="BE5" t="n">
-        <v>3699</v>
+        <v>3699.0</v>
       </c>
       <c r="BF5" t="n">
-        <v>3067</v>
+        <v>3067.0</v>
       </c>
       <c r="BG5" t="n">
-        <v>2352</v>
+        <v>2352.0</v>
       </c>
       <c r="BH5" t="n">
-        <v>23329</v>
+        <v>23329.0</v>
       </c>
       <c r="BI5" t="n">
-        <v>6698</v>
+        <v>6698.0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>64857</v>
+        <v>64857.0</v>
       </c>
       <c r="BK5" t="n">
-        <v>47663</v>
+        <v>47663.0</v>
       </c>
       <c r="BL5" t="n">
-        <v>15559</v>
+        <v>15559.0</v>
       </c>
       <c r="BM5" t="n">
-        <v>17672</v>
+        <v>17672.0</v>
       </c>
       <c r="BN5" t="n">
-        <v>12088</v>
+        <v>12088.0</v>
       </c>
       <c r="BO5" t="n">
-        <v>1747</v>
+        <v>1747.0</v>
       </c>
       <c r="BP5" t="n">
-        <v>6575</v>
+        <v>6575.0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>3693</v>
+        <v>3693.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" t="n">
-        <v>5123</v>
+        <v>5123.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2698</v>
+        <v>2698.0</v>
       </c>
       <c r="D6" t="n">
-        <v>272</v>
+        <v>272.0</v>
       </c>
       <c r="E6" t="n">
-        <v>806</v>
+        <v>806.0</v>
       </c>
       <c r="F6" t="n">
-        <v>3536</v>
+        <v>3536.0</v>
       </c>
       <c r="G6" t="n">
-        <v>884</v>
+        <v>884.0</v>
       </c>
       <c r="H6" t="n">
-        <v>566</v>
+        <v>566.0</v>
       </c>
       <c r="I6" t="n">
-        <v>6513</v>
+        <v>6513.0</v>
       </c>
       <c r="J6" t="n">
-        <v>2394</v>
+        <v>2394.0</v>
       </c>
       <c r="K6" t="n">
-        <v>7273</v>
+        <v>7273.0</v>
       </c>
       <c r="L6" t="n">
-        <v>2148</v>
+        <v>2148.0</v>
       </c>
       <c r="M6" t="n">
-        <v>367</v>
+        <v>367.0</v>
       </c>
       <c r="N6" t="n">
-        <v>1996</v>
+        <v>1996.0</v>
       </c>
       <c r="O6" t="n">
-        <v>3739</v>
+        <v>3739.0</v>
       </c>
       <c r="P6" t="n">
-        <v>1856</v>
+        <v>1856.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1182</v>
+        <v>1182.0</v>
       </c>
       <c r="R6" t="n">
-        <v>2686</v>
+        <v>2686.0</v>
       </c>
       <c r="S6" t="n">
-        <v>1025</v>
+        <v>1025.0</v>
       </c>
       <c r="T6" t="n">
-        <v>1877</v>
+        <v>1877.0</v>
       </c>
       <c r="U6" t="n">
-        <v>1350</v>
+        <v>1350.0</v>
       </c>
       <c r="V6" t="n">
-        <v>2868</v>
+        <v>2868.0</v>
       </c>
       <c r="W6" t="n">
-        <v>1980</v>
+        <v>1980.0</v>
       </c>
       <c r="X6" t="n">
-        <v>1412</v>
+        <v>1412.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>2814</v>
+        <v>2814.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>4943</v>
+        <v>4943.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>3466</v>
+        <v>3466.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>2727</v>
+        <v>2727.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>1168</v>
+        <v>1168.0</v>
       </c>
       <c r="AD6" t="n">
-        <v>4470</v>
+        <v>4470.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1937</v>
+        <v>1937.0</v>
       </c>
       <c r="AF6" t="n">
-        <v>3036</v>
+        <v>3036.0</v>
       </c>
       <c r="AG6" t="n">
-        <v>5460</v>
+        <v>5460.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>4407</v>
+        <v>4407.0</v>
       </c>
       <c r="AI6" t="n">
-        <v>3257</v>
+        <v>3257.0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1477</v>
+        <v>1477.0</v>
       </c>
       <c r="AK6" t="n">
-        <v>2905</v>
+        <v>2905.0</v>
       </c>
       <c r="AL6" t="n">
-        <v>2436</v>
+        <v>2436.0</v>
       </c>
       <c r="AM6" t="n">
-        <v>4662</v>
+        <v>4662.0</v>
       </c>
       <c r="AN6" t="n">
-        <v>5109</v>
+        <v>5109.0</v>
       </c>
       <c r="AO6" t="n">
-        <v>18183</v>
+        <v>18183.0</v>
       </c>
       <c r="AP6" t="n">
-        <v>8959</v>
+        <v>8959.0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>71753</v>
+        <v>71753.0</v>
       </c>
       <c r="AR6" t="n">
-        <v>15650</v>
+        <v>15650.0</v>
       </c>
       <c r="AS6" t="n">
-        <v>881</v>
+        <v>881.0</v>
       </c>
       <c r="AT6" t="n">
-        <v>1333</v>
+        <v>1333.0</v>
       </c>
       <c r="AU6" t="n">
-        <v>8842</v>
+        <v>8842.0</v>
       </c>
       <c r="AV6" t="n">
-        <v>1736</v>
+        <v>1736.0</v>
       </c>
       <c r="AW6" t="n">
-        <v>9380</v>
+        <v>9380.0</v>
       </c>
       <c r="AX6" t="n">
-        <v>1198</v>
+        <v>1198.0</v>
       </c>
       <c r="AY6" t="n">
-        <v>1745</v>
+        <v>1745.0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3960</v>
+        <v>3960.0</v>
       </c>
       <c r="BA6" t="n">
-        <v>11081</v>
+        <v>11081.0</v>
       </c>
       <c r="BB6" t="n">
-        <v>32184</v>
+        <v>32184.0</v>
       </c>
       <c r="BC6" t="n">
-        <v>1614</v>
+        <v>1614.0</v>
       </c>
       <c r="BD6" t="n">
-        <v>10153</v>
+        <v>10153.0</v>
       </c>
       <c r="BE6" t="n">
-        <v>3565</v>
+        <v>3565.0</v>
       </c>
       <c r="BF6" t="n">
-        <v>3015</v>
+        <v>3015.0</v>
       </c>
       <c r="BG6" t="n">
-        <v>2297</v>
+        <v>2297.0</v>
       </c>
       <c r="BH6" t="n">
-        <v>22948</v>
+        <v>22948.0</v>
       </c>
       <c r="BI6" t="n">
-        <v>6601</v>
+        <v>6601.0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>64134</v>
+        <v>64134.0</v>
       </c>
       <c r="BK6" t="n">
-        <v>47469</v>
+        <v>47469.0</v>
       </c>
       <c r="BL6" t="n">
-        <v>15429</v>
+        <v>15429.0</v>
       </c>
       <c r="BM6" t="n">
-        <v>17649</v>
+        <v>17649.0</v>
       </c>
       <c r="BN6" t="n">
-        <v>11939</v>
+        <v>11939.0</v>
       </c>
       <c r="BO6" t="n">
-        <v>1701</v>
+        <v>1701.0</v>
       </c>
       <c r="BP6" t="n">
-        <v>6456</v>
+        <v>6456.0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>3693</v>
+        <v>3693.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="F7" t="n">
-        <v>1022</v>
+        <v>1022.0</v>
       </c>
       <c r="G7" t="n">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="H7" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="I7" t="n">
-        <v>172</v>
+        <v>172.0</v>
       </c>
       <c r="J7" t="n">
-        <v>44</v>
+        <v>44.0</v>
       </c>
       <c r="K7" t="n">
-        <v>238</v>
+        <v>238.0</v>
       </c>
       <c r="L7" t="n">
-        <v>87</v>
+        <v>87.0</v>
       </c>
       <c r="M7" t="n">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="N7" t="n">
-        <v>44</v>
+        <v>44.0</v>
       </c>
       <c r="O7" t="n">
-        <v>61</v>
+        <v>61.0</v>
       </c>
       <c r="P7" t="n">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>67</v>
+        <v>67.0</v>
       </c>
       <c r="R7" t="n">
-        <v>283</v>
+        <v>283.0</v>
       </c>
       <c r="S7" t="n">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="T7" t="n">
-        <v>772</v>
+        <v>772.0</v>
       </c>
       <c r="U7" t="n">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="V7" t="n">
-        <v>277</v>
+        <v>277.0</v>
       </c>
       <c r="W7" t="n">
-        <v>175</v>
+        <v>175.0</v>
       </c>
       <c r="X7" t="n">
-        <v>42</v>
+        <v>42.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>179</v>
+        <v>179.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>150</v>
+        <v>150.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>157</v>
+        <v>157.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>261</v>
+        <v>261.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>64</v>
+        <v>64.0</v>
       </c>
       <c r="AD7" t="n">
-        <v>119</v>
+        <v>119.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>63</v>
+        <v>63.0</v>
       </c>
       <c r="AF7" t="n">
-        <v>118</v>
+        <v>118.0</v>
       </c>
       <c r="AG7" t="n">
-        <v>256</v>
+        <v>256.0</v>
       </c>
       <c r="AH7" t="n">
-        <v>217</v>
+        <v>217.0</v>
       </c>
       <c r="AI7" t="n">
-        <v>133</v>
+        <v>133.0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>121</v>
+        <v>121.0</v>
       </c>
       <c r="AK7" t="n">
-        <v>85</v>
+        <v>85.0</v>
       </c>
       <c r="AL7" t="n">
-        <v>98</v>
+        <v>98.0</v>
       </c>
       <c r="AM7" t="n">
-        <v>1404</v>
+        <v>1404.0</v>
       </c>
       <c r="AN7" t="n">
-        <v>564</v>
+        <v>564.0</v>
       </c>
       <c r="AO7" t="n">
-        <v>452</v>
+        <v>452.0</v>
       </c>
       <c r="AP7" t="n">
-        <v>116</v>
+        <v>116.0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1323</v>
+        <v>1323.0</v>
       </c>
       <c r="AR7" t="n">
-        <v>617</v>
+        <v>617.0</v>
       </c>
       <c r="AS7" t="n">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="AT7" t="n">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="AU7" t="n">
-        <v>1128</v>
+        <v>1128.0</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>51.0</v>
       </c>
       <c r="AW7" t="n">
-        <v>133</v>
+        <v>133.0</v>
       </c>
       <c r="AX7" t="n">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="AY7" t="n">
-        <v>76</v>
+        <v>76.0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>880</v>
+        <v>880.0</v>
       </c>
       <c r="BA7" t="n">
-        <v>736</v>
+        <v>736.0</v>
       </c>
       <c r="BB7" t="n">
-        <v>5909</v>
+        <v>5909.0</v>
       </c>
       <c r="BC7" t="n">
-        <v>56</v>
+        <v>56.0</v>
       </c>
       <c r="BD7" t="n">
-        <v>1067</v>
+        <v>1067.0</v>
       </c>
       <c r="BE7" t="n">
-        <v>134</v>
+        <v>134.0</v>
       </c>
       <c r="BF7" t="n">
-        <v>52</v>
+        <v>52.0</v>
       </c>
       <c r="BG7" t="n">
-        <v>55</v>
+        <v>55.0</v>
       </c>
       <c r="BH7" t="n">
-        <v>381</v>
+        <v>381.0</v>
       </c>
       <c r="BI7" t="n">
-        <v>97</v>
+        <v>97.0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>723</v>
+        <v>723.0</v>
       </c>
       <c r="BK7" t="n">
-        <v>194</v>
+        <v>194.0</v>
       </c>
       <c r="BL7" t="n">
-        <v>130</v>
+        <v>130.0</v>
       </c>
       <c r="BM7" t="n">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="BN7" t="n">
-        <v>149</v>
+        <v>149.0</v>
       </c>
       <c r="BO7" t="n">
-        <v>46</v>
+        <v>46.0</v>
       </c>
       <c r="BP7" t="n">
-        <v>119</v>
+        <v>119.0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>82843</v>
+        <v>82843.0</v>
       </c>
       <c r="BK8" t="n">
-        <v>6706</v>
+        <v>6706.0</v>
       </c>
       <c r="BL8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BM8" t="n">
-        <v>7263</v>
+        <v>7263.0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>182575</v>
+        <v>182575.0</v>
       </c>
       <c r="C9" t="n">
-        <v>48953</v>
+        <v>48953.0</v>
       </c>
       <c r="D9" t="n">
-        <v>26039</v>
+        <v>26039.0</v>
       </c>
       <c r="E9" t="n">
-        <v>3887</v>
+        <v>3887.0</v>
       </c>
       <c r="F9" t="n">
-        <v>82275</v>
+        <v>82275.0</v>
       </c>
       <c r="G9" t="n">
-        <v>40026</v>
+        <v>40026.0</v>
       </c>
       <c r="H9" t="n">
-        <v>4247</v>
+        <v>4247.0</v>
       </c>
       <c r="I9" t="n">
-        <v>13233</v>
+        <v>13233.0</v>
       </c>
       <c r="J9" t="n">
-        <v>-927</v>
+        <v>-927.0</v>
       </c>
       <c r="K9" t="n">
-        <v>27501</v>
+        <v>27501.0</v>
       </c>
       <c r="L9" t="n">
-        <v>11221</v>
+        <v>11221.0</v>
       </c>
       <c r="M9" t="n">
-        <v>1741</v>
+        <v>1741.0</v>
       </c>
       <c r="N9" t="n">
-        <v>4276</v>
+        <v>4276.0</v>
       </c>
       <c r="O9" t="n">
-        <v>9211</v>
+        <v>9211.0</v>
       </c>
       <c r="P9" t="n">
-        <v>4032</v>
+        <v>4032.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>4783</v>
+        <v>4783.0</v>
       </c>
       <c r="R9" t="n">
-        <v>16893</v>
+        <v>16893.0</v>
       </c>
       <c r="S9" t="n">
-        <v>4315</v>
+        <v>4315.0</v>
       </c>
       <c r="T9" t="n">
-        <v>32249</v>
+        <v>32249.0</v>
       </c>
       <c r="U9" t="n">
-        <v>4134</v>
+        <v>4134.0</v>
       </c>
       <c r="V9" t="n">
-        <v>12505</v>
+        <v>12505.0</v>
       </c>
       <c r="W9" t="n">
-        <v>5167</v>
+        <v>5167.0</v>
       </c>
       <c r="X9" t="n">
-        <v>3587</v>
+        <v>3587.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>21406</v>
+        <v>21406.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>5651</v>
+        <v>5651.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>4831</v>
+        <v>4831.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>19673</v>
+        <v>19673.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>9072</v>
+        <v>9072.0</v>
       </c>
       <c r="AD9" t="n">
-        <v>10310</v>
+        <v>10310.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>4751</v>
+        <v>4751.0</v>
       </c>
       <c r="AF9" t="n">
-        <v>4693</v>
+        <v>4693.0</v>
       </c>
       <c r="AG9" t="n">
-        <v>8755</v>
+        <v>8755.0</v>
       </c>
       <c r="AH9" t="n">
-        <v>1419</v>
+        <v>1419.0</v>
       </c>
       <c r="AI9" t="n">
-        <v>8283</v>
+        <v>8283.0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2054</v>
+        <v>2054.0</v>
       </c>
       <c r="AK9" t="n">
-        <v>15383</v>
+        <v>15383.0</v>
       </c>
       <c r="AL9" t="n">
-        <v>14972</v>
+        <v>14972.0</v>
       </c>
       <c r="AM9" t="n">
-        <v>96561</v>
+        <v>96561.0</v>
       </c>
       <c r="AN9" t="n">
-        <v>26426</v>
+        <v>26426.0</v>
       </c>
       <c r="AO9" t="n">
-        <v>135690</v>
+        <v>135690.0</v>
       </c>
       <c r="AP9" t="n">
-        <v>47260</v>
+        <v>47260.0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>320736</v>
+        <v>320736.0</v>
       </c>
       <c r="AR9" t="n">
-        <v>75354</v>
+        <v>75354.0</v>
       </c>
       <c r="AS9" t="n">
-        <v>4521</v>
+        <v>4521.0</v>
       </c>
       <c r="AT9" t="n">
-        <v>1775</v>
+        <v>1775.0</v>
       </c>
       <c r="AU9" t="n">
-        <v>33698</v>
+        <v>33698.0</v>
       </c>
       <c r="AV9" t="n">
-        <v>3121</v>
+        <v>3121.0</v>
       </c>
       <c r="AW9" t="n">
-        <v>68654</v>
+        <v>68654.0</v>
       </c>
       <c r="AX9" t="n">
-        <v>1586</v>
+        <v>1586.0</v>
       </c>
       <c r="AY9" t="n">
-        <v>3948</v>
+        <v>3948.0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>43825</v>
+        <v>43825.0</v>
       </c>
       <c r="BA9" t="n">
-        <v>51289</v>
+        <v>51289.0</v>
       </c>
       <c r="BB9" t="n">
-        <v>249222</v>
+        <v>249222.0</v>
       </c>
       <c r="BC9" t="n">
-        <v>579640</v>
+        <v>579640.0</v>
       </c>
       <c r="BD9" t="n">
-        <v>92276</v>
+        <v>92276.0</v>
       </c>
       <c r="BE9" t="n">
-        <v>20171</v>
+        <v>20171.0</v>
       </c>
       <c r="BF9" t="n">
-        <v>22865</v>
+        <v>22865.0</v>
       </c>
       <c r="BG9" t="n">
-        <v>18437</v>
+        <v>18437.0</v>
       </c>
       <c r="BH9" t="n">
-        <v>54852</v>
+        <v>54852.0</v>
       </c>
       <c r="BI9" t="n">
-        <v>2998</v>
+        <v>2998.0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>87157</v>
+        <v>87157.0</v>
       </c>
       <c r="BK9" t="n">
-        <v>13026</v>
+        <v>13026.0</v>
       </c>
       <c r="BL9" t="n">
-        <v>10137</v>
+        <v>10137.0</v>
       </c>
       <c r="BM9" t="n">
-        <v>6529</v>
+        <v>6529.0</v>
       </c>
       <c r="BN9" t="n">
-        <v>77062</v>
+        <v>77062.0</v>
       </c>
       <c r="BO9" t="n">
-        <v>9413</v>
+        <v>9413.0</v>
       </c>
       <c r="BP9" t="n">
-        <v>39805</v>
+        <v>39805.0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" t="n">
-        <v>97228</v>
+        <v>97228.0</v>
       </c>
       <c r="C10" t="n">
-        <v>38269</v>
+        <v>38269.0</v>
       </c>
       <c r="D10" t="n">
-        <v>12179</v>
+        <v>12179.0</v>
       </c>
       <c r="E10" t="n">
-        <v>254</v>
+        <v>254.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>365</v>
+        <v>365.0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K10" t="n">
-        <v>4151</v>
+        <v>4151.0</v>
       </c>
       <c r="L10" t="n">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N10" t="n">
-        <v>1228</v>
+        <v>1228.0</v>
       </c>
       <c r="O10" t="n">
-        <v>6429</v>
+        <v>6429.0</v>
       </c>
       <c r="P10" t="n">
-        <v>625</v>
+        <v>625.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1625</v>
+        <v>1625.0</v>
       </c>
       <c r="R10" t="n">
-        <v>296</v>
+        <v>296.0</v>
       </c>
       <c r="S10" t="n">
-        <v>460</v>
+        <v>460.0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X10" t="n">
-        <v>585</v>
+        <v>585.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>373</v>
+        <v>373.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>799</v>
+        <v>799.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-18</v>
+        <v>-18.0</v>
       </c>
       <c r="AD10" t="n">
-        <v>2385</v>
+        <v>2385.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AI10" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AK10" t="n">
-        <v>1333</v>
+        <v>1333.0</v>
       </c>
       <c r="AL10" t="n">
-        <v>5023</v>
+        <v>5023.0</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1734</v>
+        <v>1734.0</v>
       </c>
       <c r="AO10" t="n">
-        <v>68569</v>
+        <v>68569.0</v>
       </c>
       <c r="AP10" t="n">
-        <v>22740</v>
+        <v>22740.0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>58881</v>
+        <v>58881.0</v>
       </c>
       <c r="AR10" t="n">
-        <v>25394</v>
+        <v>25394.0</v>
       </c>
       <c r="AS10" t="n">
-        <v>430</v>
+        <v>430.0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AU10" t="n">
-        <v>1273</v>
+        <v>1273.0</v>
       </c>
       <c r="AV10" t="n">
-        <v>1302</v>
+        <v>1302.0</v>
       </c>
       <c r="AW10" t="n">
-        <v>48476</v>
+        <v>48476.0</v>
       </c>
       <c r="AX10" t="n">
-        <v>56</v>
+        <v>56.0</v>
       </c>
       <c r="AY10" t="n">
-        <v>853</v>
+        <v>853.0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>253</v>
+        <v>253.0</v>
       </c>
       <c r="BA10" t="n">
-        <v>9240</v>
+        <v>9240.0</v>
       </c>
       <c r="BB10" t="n">
-        <v>2638</v>
+        <v>2638.0</v>
       </c>
       <c r="BC10" t="n">
-        <v>4300</v>
+        <v>4300.0</v>
       </c>
       <c r="BD10" t="n">
-        <v>39398</v>
+        <v>39398.0</v>
       </c>
       <c r="BE10" t="n">
-        <v>11034</v>
+        <v>11034.0</v>
       </c>
       <c r="BF10" t="n">
-        <v>6368</v>
+        <v>6368.0</v>
       </c>
       <c r="BG10" t="n">
-        <v>793</v>
+        <v>793.0</v>
       </c>
       <c r="BH10" t="n">
-        <v>7868</v>
+        <v>7868.0</v>
       </c>
       <c r="BI10" t="n">
-        <v>1175</v>
+        <v>1175.0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BL10" t="n">
-        <v>7947</v>
+        <v>7947.0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BN10" t="n">
-        <v>50020</v>
+        <v>50020.0</v>
       </c>
       <c r="BO10" t="n">
-        <v>6325</v>
+        <v>6325.0</v>
       </c>
       <c r="BP10" t="n">
-        <v>32861</v>
+        <v>32861.0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" t="n">
-        <v>85347</v>
+        <v>85347.0</v>
       </c>
       <c r="C11" t="n">
-        <v>10684</v>
+        <v>10684.0</v>
       </c>
       <c r="D11" t="n">
-        <v>13860</v>
+        <v>13860.0</v>
       </c>
       <c r="E11" t="n">
-        <v>3633</v>
+        <v>3633.0</v>
       </c>
       <c r="F11" t="n">
-        <v>82275</v>
+        <v>82275.0</v>
       </c>
       <c r="G11" t="n">
-        <v>40026</v>
+        <v>40026.0</v>
       </c>
       <c r="H11" t="n">
-        <v>4247</v>
+        <v>4247.0</v>
       </c>
       <c r="I11" t="n">
-        <v>12868</v>
+        <v>12868.0</v>
       </c>
       <c r="J11" t="n">
-        <v>-927</v>
+        <v>-927.0</v>
       </c>
       <c r="K11" t="n">
-        <v>23350</v>
+        <v>23350.0</v>
       </c>
       <c r="L11" t="n">
-        <v>11198</v>
+        <v>11198.0</v>
       </c>
       <c r="M11" t="n">
-        <v>1741</v>
+        <v>1741.0</v>
       </c>
       <c r="N11" t="n">
-        <v>3048</v>
+        <v>3048.0</v>
       </c>
       <c r="O11" t="n">
-        <v>2782</v>
+        <v>2782.0</v>
       </c>
       <c r="P11" t="n">
-        <v>3407</v>
+        <v>3407.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>3158</v>
+        <v>3158.0</v>
       </c>
       <c r="R11" t="n">
-        <v>16597</v>
+        <v>16597.0</v>
       </c>
       <c r="S11" t="n">
-        <v>3855</v>
+        <v>3855.0</v>
       </c>
       <c r="T11" t="n">
-        <v>32249</v>
+        <v>32249.0</v>
       </c>
       <c r="U11" t="n">
-        <v>4134</v>
+        <v>4134.0</v>
       </c>
       <c r="V11" t="n">
-        <v>12505</v>
+        <v>12505.0</v>
       </c>
       <c r="W11" t="n">
-        <v>5167</v>
+        <v>5167.0</v>
       </c>
       <c r="X11" t="n">
-        <v>3002</v>
+        <v>3002.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>21406</v>
+        <v>21406.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>5278</v>
+        <v>5278.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>4032</v>
+        <v>4032.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>19673</v>
+        <v>19673.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>9090</v>
+        <v>9090.0</v>
       </c>
       <c r="AD11" t="n">
-        <v>7925</v>
+        <v>7925.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>4751</v>
+        <v>4751.0</v>
       </c>
       <c r="AF11" t="n">
-        <v>4693</v>
+        <v>4693.0</v>
       </c>
       <c r="AG11" t="n">
-        <v>8755</v>
+        <v>8755.0</v>
       </c>
       <c r="AH11" t="n">
-        <v>1419</v>
+        <v>1419.0</v>
       </c>
       <c r="AI11" t="n">
-        <v>8255</v>
+        <v>8255.0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2054</v>
+        <v>2054.0</v>
       </c>
       <c r="AK11" t="n">
-        <v>14050</v>
+        <v>14050.0</v>
       </c>
       <c r="AL11" t="n">
-        <v>9949</v>
+        <v>9949.0</v>
       </c>
       <c r="AM11" t="n">
-        <v>96561</v>
+        <v>96561.0</v>
       </c>
       <c r="AN11" t="n">
-        <v>24692</v>
+        <v>24692.0</v>
       </c>
       <c r="AO11" t="n">
-        <v>67121</v>
+        <v>67121.0</v>
       </c>
       <c r="AP11" t="n">
-        <v>24520</v>
+        <v>24520.0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>261855</v>
+        <v>261855.0</v>
       </c>
       <c r="AR11" t="n">
-        <v>49960</v>
+        <v>49960.0</v>
       </c>
       <c r="AS11" t="n">
-        <v>4091</v>
+        <v>4091.0</v>
       </c>
       <c r="AT11" t="n">
-        <v>1775</v>
+        <v>1775.0</v>
       </c>
       <c r="AU11" t="n">
-        <v>32425</v>
+        <v>32425.0</v>
       </c>
       <c r="AV11" t="n">
-        <v>1819</v>
+        <v>1819.0</v>
       </c>
       <c r="AW11" t="n">
-        <v>20178</v>
+        <v>20178.0</v>
       </c>
       <c r="AX11" t="n">
-        <v>1530</v>
+        <v>1530.0</v>
       </c>
       <c r="AY11" t="n">
-        <v>3095</v>
+        <v>3095.0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>43572</v>
+        <v>43572.0</v>
       </c>
       <c r="BA11" t="n">
-        <v>42049</v>
+        <v>42049.0</v>
       </c>
       <c r="BB11" t="n">
-        <v>246584</v>
+        <v>246584.0</v>
       </c>
       <c r="BC11" t="n">
-        <v>575340</v>
+        <v>575340.0</v>
       </c>
       <c r="BD11" t="n">
-        <v>52878</v>
+        <v>52878.0</v>
       </c>
       <c r="BE11" t="n">
-        <v>9137</v>
+        <v>9137.0</v>
       </c>
       <c r="BF11" t="n">
-        <v>16497</v>
+        <v>16497.0</v>
       </c>
       <c r="BG11" t="n">
-        <v>17644</v>
+        <v>17644.0</v>
       </c>
       <c r="BH11" t="n">
-        <v>46984</v>
+        <v>46984.0</v>
       </c>
       <c r="BI11" t="n">
-        <v>1823</v>
+        <v>1823.0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>87157</v>
+        <v>87157.0</v>
       </c>
       <c r="BK11" t="n">
-        <v>13026</v>
+        <v>13026.0</v>
       </c>
       <c r="BL11" t="n">
-        <v>2190</v>
+        <v>2190.0</v>
       </c>
       <c r="BM11" t="n">
-        <v>6529</v>
+        <v>6529.0</v>
       </c>
       <c r="BN11" t="n">
-        <v>27042</v>
+        <v>27042.0</v>
       </c>
       <c r="BO11" t="n">
-        <v>3088</v>
+        <v>3088.0</v>
       </c>
       <c r="BP11" t="n">
-        <v>6944</v>
+        <v>6944.0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" t="n">
-        <v>1841</v>
+        <v>1841.0</v>
       </c>
       <c r="C12" t="n">
-        <v>641</v>
+        <v>641.0</v>
       </c>
       <c r="D12" t="n">
-        <v>151</v>
+        <v>151.0</v>
       </c>
       <c r="E12" t="n">
-        <v>199</v>
+        <v>199.0</v>
       </c>
       <c r="F12" t="n">
-        <v>1568</v>
+        <v>1568.0</v>
       </c>
       <c r="G12" t="n">
-        <v>630</v>
+        <v>630.0</v>
       </c>
       <c r="H12" t="n">
-        <v>170</v>
+        <v>170.0</v>
       </c>
       <c r="I12" t="n">
-        <v>2563</v>
+        <v>2563.0</v>
       </c>
       <c r="J12" t="n">
-        <v>775</v>
+        <v>775.0</v>
       </c>
       <c r="K12" t="n">
-        <v>3210</v>
+        <v>3210.0</v>
       </c>
       <c r="L12" t="n">
-        <v>938</v>
+        <v>938.0</v>
       </c>
       <c r="M12" t="n">
-        <v>130</v>
+        <v>130.0</v>
       </c>
       <c r="N12" t="n">
-        <v>530</v>
+        <v>530.0</v>
       </c>
       <c r="O12" t="n">
-        <v>650</v>
+        <v>650.0</v>
       </c>
       <c r="P12" t="n">
-        <v>490</v>
+        <v>490.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>363</v>
+        <v>363.0</v>
       </c>
       <c r="R12" t="n">
-        <v>939</v>
+        <v>939.0</v>
       </c>
       <c r="S12" t="n">
-        <v>281</v>
+        <v>281.0</v>
       </c>
       <c r="T12" t="n">
-        <v>1345</v>
+        <v>1345.0</v>
       </c>
       <c r="U12" t="n">
-        <v>501</v>
+        <v>501.0</v>
       </c>
       <c r="V12" t="n">
-        <v>1318</v>
+        <v>1318.0</v>
       </c>
       <c r="W12" t="n">
-        <v>705</v>
+        <v>705.0</v>
       </c>
       <c r="X12" t="n">
-        <v>479</v>
+        <v>479.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>709</v>
+        <v>709.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>1197</v>
+        <v>1197.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>875</v>
+        <v>875.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1156</v>
+        <v>1156.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>555</v>
+        <v>555.0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1058</v>
+        <v>1058.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>1074</v>
+        <v>1074.0</v>
       </c>
       <c r="AF12" t="n">
-        <v>784</v>
+        <v>784.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>1363</v>
+        <v>1363.0</v>
       </c>
       <c r="AH12" t="n">
-        <v>1530</v>
+        <v>1530.0</v>
       </c>
       <c r="AI12" t="n">
-        <v>1108</v>
+        <v>1108.0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>419</v>
+        <v>419.0</v>
       </c>
       <c r="AK12" t="n">
-        <v>725</v>
+        <v>725.0</v>
       </c>
       <c r="AL12" t="n">
-        <v>486</v>
+        <v>486.0</v>
       </c>
       <c r="AM12" t="n">
-        <v>3157</v>
+        <v>3157.0</v>
       </c>
       <c r="AN12" t="n">
-        <v>951</v>
+        <v>951.0</v>
       </c>
       <c r="AO12" t="n">
-        <v>3384</v>
+        <v>3384.0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1466</v>
+        <v>1466.0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>12523</v>
+        <v>12523.0</v>
       </c>
       <c r="AR12" t="n">
-        <v>3613</v>
+        <v>3613.0</v>
       </c>
       <c r="AS12" t="n">
-        <v>417</v>
+        <v>417.0</v>
       </c>
       <c r="AT12" t="n">
-        <v>712</v>
+        <v>712.0</v>
       </c>
       <c r="AU12" t="n">
-        <v>1734</v>
+        <v>1734.0</v>
       </c>
       <c r="AV12" t="n">
-        <v>394</v>
+        <v>394.0</v>
       </c>
       <c r="AW12" t="n">
-        <v>1741</v>
+        <v>1741.0</v>
       </c>
       <c r="AX12" t="n">
-        <v>228</v>
+        <v>228.0</v>
       </c>
       <c r="AY12" t="n">
-        <v>1362</v>
+        <v>1362.0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>6971</v>
+        <v>6971.0</v>
       </c>
       <c r="BA12" t="n">
-        <v>2073</v>
+        <v>2073.0</v>
       </c>
       <c r="BB12" t="n">
-        <v>8223</v>
+        <v>8223.0</v>
       </c>
       <c r="BC12" t="n">
-        <v>473</v>
+        <v>473.0</v>
       </c>
       <c r="BD12" t="n">
-        <v>2660</v>
+        <v>2660.0</v>
       </c>
       <c r="BE12" t="n">
-        <v>617</v>
+        <v>617.0</v>
       </c>
       <c r="BF12" t="n">
-        <v>520</v>
+        <v>520.0</v>
       </c>
       <c r="BG12" t="n">
-        <v>525</v>
+        <v>525.0</v>
       </c>
       <c r="BH12" t="n">
-        <v>3452</v>
+        <v>3452.0</v>
       </c>
       <c r="BI12" t="n">
-        <v>1043</v>
+        <v>1043.0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>163</v>
+        <v>163.0</v>
       </c>
       <c r="BK12" t="n">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="BL12" t="n">
-        <v>2814</v>
+        <v>2814.0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BN12" t="n">
-        <v>3006</v>
+        <v>3006.0</v>
       </c>
       <c r="BO12" t="n">
-        <v>306</v>
+        <v>306.0</v>
       </c>
       <c r="BP12" t="n">
-        <v>1199</v>
+        <v>1199.0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" t="n">
-        <v>-9261</v>
+        <v>-9261.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-119</v>
+        <v>-119.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-37</v>
+        <v>-37.0</v>
       </c>
       <c r="E13" t="n">
-        <v>-61</v>
+        <v>-61.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n">
-        <v>-24</v>
+        <v>-24.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>-82</v>
+        <v>-82.0</v>
       </c>
       <c r="J13" t="n">
-        <v>-114</v>
+        <v>-114.0</v>
       </c>
       <c r="K13" t="n">
-        <v>-105</v>
+        <v>-105.0</v>
       </c>
       <c r="L13" t="n">
-        <v>-32</v>
+        <v>-32.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N13" t="n">
-        <v>-21</v>
+        <v>-21.0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-31</v>
+        <v>-31.0</v>
       </c>
       <c r="R13" t="n">
-        <v>-80</v>
+        <v>-80.0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>-150</v>
+        <v>-150.0</v>
       </c>
       <c r="U13" t="n">
-        <v>-124</v>
+        <v>-124.0</v>
       </c>
       <c r="V13" t="n">
-        <v>-30</v>
+        <v>-30.0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-21</v>
+        <v>-21.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-120</v>
+        <v>-120.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-99</v>
+        <v>-99.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>-53</v>
+        <v>-53.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-28</v>
+        <v>-28.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>-67</v>
+        <v>-67.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-74</v>
+        <v>-74.0</v>
       </c>
       <c r="AG13" t="n">
-        <v>-195</v>
+        <v>-195.0</v>
       </c>
       <c r="AH13" t="n">
-        <v>-219</v>
+        <v>-219.0</v>
       </c>
       <c r="AI13" t="n">
-        <v>-180</v>
+        <v>-180.0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-51</v>
+        <v>-51.0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-28</v>
+        <v>-28.0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AM13" t="n">
-        <v>-119</v>
+        <v>-119.0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-31</v>
+        <v>-31.0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-364</v>
+        <v>-364.0</v>
       </c>
       <c r="AP13" t="n">
-        <v>-29</v>
+        <v>-29.0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-618</v>
+        <v>-618.0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-1629</v>
+        <v>-1629.0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AT13" t="n">
-        <v>-25</v>
+        <v>-25.0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-49</v>
+        <v>-49.0</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-64</v>
+        <v>-64.0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BE13" t="n">
-        <v>-374</v>
+        <v>-374.0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-155</v>
+        <v>-155.0</v>
       </c>
       <c r="BH13" t="n">
-        <v>-49</v>
+        <v>-49.0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BN13" t="n">
-        <v>-121</v>
+        <v>-121.0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" t="n">
-        <v>398037</v>
+        <v>398037.0</v>
       </c>
       <c r="C14" t="n">
-        <v>151959</v>
+        <v>151959.0</v>
       </c>
       <c r="D14" t="n">
-        <v>37870</v>
+        <v>37870.0</v>
       </c>
       <c r="E14" t="n">
-        <v>20011</v>
+        <v>20011.0</v>
       </c>
       <c r="F14" t="n">
-        <v>225938</v>
+        <v>225938.0</v>
       </c>
       <c r="G14" t="n">
-        <v>92326</v>
+        <v>92326.0</v>
       </c>
       <c r="H14" t="n">
-        <v>18273</v>
+        <v>18273.0</v>
       </c>
       <c r="I14" t="n">
-        <v>292406</v>
+        <v>292406.0</v>
       </c>
       <c r="J14" t="n">
-        <v>51555</v>
+        <v>51555.0</v>
       </c>
       <c r="K14" t="n">
-        <v>324943</v>
+        <v>324943.0</v>
       </c>
       <c r="L14" t="n">
-        <v>78544</v>
+        <v>78544.0</v>
       </c>
       <c r="M14" t="n">
-        <v>15694</v>
+        <v>15694.0</v>
       </c>
       <c r="N14" t="n">
-        <v>54793</v>
+        <v>54793.0</v>
       </c>
       <c r="O14" t="n">
-        <v>66432</v>
+        <v>66432.0</v>
       </c>
       <c r="P14" t="n">
-        <v>43848</v>
+        <v>43848.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>32687</v>
+        <v>32687.0</v>
       </c>
       <c r="R14" t="n">
-        <v>109595</v>
+        <v>109595.0</v>
       </c>
       <c r="S14" t="n">
-        <v>21333</v>
+        <v>21333.0</v>
       </c>
       <c r="T14" t="n">
-        <v>447501</v>
+        <v>447501.0</v>
       </c>
       <c r="U14" t="n">
-        <v>54637</v>
+        <v>54637.0</v>
       </c>
       <c r="V14" t="n">
-        <v>179506</v>
+        <v>179506.0</v>
       </c>
       <c r="W14" t="n">
-        <v>88308</v>
+        <v>88308.0</v>
       </c>
       <c r="X14" t="n">
-        <v>50176</v>
+        <v>50176.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>76244</v>
+        <v>76244.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>121217</v>
+        <v>121217.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>83888</v>
+        <v>83888.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>150065</v>
+        <v>150065.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>73148</v>
+        <v>73148.0</v>
       </c>
       <c r="AD14" t="n">
-        <v>101954</v>
+        <v>101954.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>103544</v>
+        <v>103544.0</v>
       </c>
       <c r="AF14" t="n">
-        <v>79945</v>
+        <v>79945.0</v>
       </c>
       <c r="AG14" t="n">
-        <v>129313</v>
+        <v>129313.0</v>
       </c>
       <c r="AH14" t="n">
-        <v>187915</v>
+        <v>187915.0</v>
       </c>
       <c r="AI14" t="n">
-        <v>105992</v>
+        <v>105992.0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>41813</v>
+        <v>41813.0</v>
       </c>
       <c r="AK14" t="n">
-        <v>75235</v>
+        <v>75235.0</v>
       </c>
       <c r="AL14" t="n">
-        <v>79968</v>
+        <v>79968.0</v>
       </c>
       <c r="AM14" t="n">
-        <v>323139</v>
+        <v>323139.0</v>
       </c>
       <c r="AN14" t="n">
-        <v>82220</v>
+        <v>82220.0</v>
       </c>
       <c r="AO14" t="n">
-        <v>552073</v>
+        <v>552073.0</v>
       </c>
       <c r="AP14" t="n">
-        <v>175093</v>
+        <v>175093.0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1120579</v>
+        <v>1120579.0</v>
       </c>
       <c r="AR14" t="n">
-        <v>398813</v>
+        <v>398813.0</v>
       </c>
       <c r="AS14" t="n">
-        <v>23042</v>
+        <v>23042.0</v>
       </c>
       <c r="AT14" t="n">
-        <v>44807</v>
+        <v>44807.0</v>
       </c>
       <c r="AU14" t="n">
-        <v>138844</v>
+        <v>138844.0</v>
       </c>
       <c r="AV14" t="n">
-        <v>27787</v>
+        <v>27787.0</v>
       </c>
       <c r="AW14" t="n">
-        <v>276938</v>
+        <v>276938.0</v>
       </c>
       <c r="AX14" t="n">
-        <v>17903</v>
+        <v>17903.0</v>
       </c>
       <c r="AY14" t="n">
-        <v>43874</v>
+        <v>43874.0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>166879</v>
+        <v>166879.0</v>
       </c>
       <c r="BA14" t="n">
-        <v>167410</v>
+        <v>167410.0</v>
       </c>
       <c r="BB14" t="n">
-        <v>649009</v>
+        <v>649009.0</v>
       </c>
       <c r="BC14" t="n">
-        <v>639752</v>
+        <v>639752.0</v>
       </c>
       <c r="BD14" t="n">
-        <v>228613</v>
+        <v>228613.0</v>
       </c>
       <c r="BE14" t="n">
-        <v>62891</v>
+        <v>62891.0</v>
       </c>
       <c r="BF14" t="n">
-        <v>104820</v>
+        <v>104820.0</v>
       </c>
       <c r="BG14" t="n">
-        <v>48479</v>
+        <v>48479.0</v>
       </c>
       <c r="BH14" t="n">
-        <v>261715</v>
+        <v>261715.0</v>
       </c>
       <c r="BI14" t="n">
-        <v>43096</v>
+        <v>43096.0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>858764</v>
+        <v>858764.0</v>
       </c>
       <c r="BK14" t="n">
-        <v>351095</v>
+        <v>351095.0</v>
       </c>
       <c r="BL14" t="n">
-        <v>143437</v>
+        <v>143437.0</v>
       </c>
       <c r="BM14" t="n">
-        <v>202716</v>
+        <v>202716.0</v>
       </c>
       <c r="BN14" t="n">
-        <v>302873</v>
+        <v>302873.0</v>
       </c>
       <c r="BO14" t="n">
-        <v>40366</v>
+        <v>40366.0</v>
       </c>
       <c r="BP14" t="n">
-        <v>171919</v>
+        <v>171919.0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>74451</v>
+        <v>74451.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" t="n">
-        <v>6687599</v>
+        <v>6687599.0</v>
       </c>
       <c r="C15" t="n">
-        <v>5891326</v>
+        <v>5891326.0</v>
       </c>
       <c r="D15" t="n">
-        <v>801096</v>
+        <v>801096.0</v>
       </c>
       <c r="E15" t="n">
-        <v>118276</v>
+        <v>118276.0</v>
       </c>
       <c r="F15" t="n">
-        <v>50144</v>
+        <v>50144.0</v>
       </c>
       <c r="G15" t="n">
-        <v>35440</v>
+        <v>35440.0</v>
       </c>
       <c r="H15" t="n">
-        <v>28949</v>
+        <v>28949.0</v>
       </c>
       <c r="I15" t="n">
-        <v>765202</v>
+        <v>765202.0</v>
       </c>
       <c r="J15" t="n">
-        <v>156442</v>
+        <v>156442.0</v>
       </c>
       <c r="K15" t="n">
-        <v>1285134</v>
+        <v>1285134.0</v>
       </c>
       <c r="L15" t="n">
-        <v>190956</v>
+        <v>190956.0</v>
       </c>
       <c r="M15" t="n">
-        <v>17784</v>
+        <v>17784.0</v>
       </c>
       <c r="N15" t="n">
-        <v>632157</v>
+        <v>632157.0</v>
       </c>
       <c r="O15" t="n">
-        <v>1676586</v>
+        <v>1676586.0</v>
       </c>
       <c r="P15" t="n">
-        <v>468535</v>
+        <v>468535.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>376397</v>
+        <v>376397.0</v>
       </c>
       <c r="R15" t="n">
-        <v>201777</v>
+        <v>201777.0</v>
       </c>
       <c r="S15" t="n">
-        <v>180593</v>
+        <v>180593.0</v>
       </c>
       <c r="T15" t="n">
-        <v>21721</v>
+        <v>21721.0</v>
       </c>
       <c r="U15" t="n">
-        <v>98255</v>
+        <v>98255.0</v>
       </c>
       <c r="V15" t="n">
-        <v>92285</v>
+        <v>92285.0</v>
       </c>
       <c r="W15" t="n">
-        <v>85311</v>
+        <v>85311.0</v>
       </c>
       <c r="X15" t="n">
-        <v>137454</v>
+        <v>137454.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>104114</v>
+        <v>104114.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>444627</v>
+        <v>444627.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>563545</v>
+        <v>563545.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>122810</v>
+        <v>122810.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>100208</v>
+        <v>100208.0</v>
       </c>
       <c r="AD15" t="n">
-        <v>669483</v>
+        <v>669483.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>127233</v>
+        <v>127233.0</v>
       </c>
       <c r="AF15" t="n">
-        <v>198332</v>
+        <v>198332.0</v>
       </c>
       <c r="AG15" t="n">
-        <v>378379</v>
+        <v>378379.0</v>
       </c>
       <c r="AH15" t="n">
-        <v>160623</v>
+        <v>160623.0</v>
       </c>
       <c r="AI15" t="n">
-        <v>305020</v>
+        <v>305020.0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>81338</v>
+        <v>81338.0</v>
       </c>
       <c r="AK15" t="n">
-        <v>744311</v>
+        <v>744311.0</v>
       </c>
       <c r="AL15" t="n">
-        <v>532601</v>
+        <v>532601.0</v>
       </c>
       <c r="AM15" t="n">
-        <v>158398</v>
+        <v>158398.0</v>
       </c>
       <c r="AN15" t="n">
-        <v>563905</v>
+        <v>563905.0</v>
       </c>
       <c r="AO15" t="n">
-        <v>7617875</v>
+        <v>7617875.0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2968849</v>
+        <v>2968849.0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>16293655</v>
+        <v>1.6293655E7</v>
       </c>
       <c r="AR15" t="n">
-        <v>4076625</v>
+        <v>4076625.0</v>
       </c>
       <c r="AS15" t="n">
-        <v>52733</v>
+        <v>52733.0</v>
       </c>
       <c r="AT15" t="n">
-        <v>60529</v>
+        <v>60529.0</v>
       </c>
       <c r="AU15" t="n">
-        <v>808476</v>
+        <v>808476.0</v>
       </c>
       <c r="AV15" t="n">
-        <v>438611</v>
+        <v>438611.0</v>
       </c>
       <c r="AW15" t="n">
-        <v>5622208</v>
+        <v>5622208.0</v>
       </c>
       <c r="AX15" t="n">
-        <v>136112</v>
+        <v>136112.0</v>
       </c>
       <c r="AY15" t="n">
-        <v>166605</v>
+        <v>166605.0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>252106</v>
+        <v>252106.0</v>
       </c>
       <c r="BA15" t="n">
-        <v>752017</v>
+        <v>752017.0</v>
       </c>
       <c r="BB15" t="n">
-        <v>1241143</v>
+        <v>1241143.0</v>
       </c>
       <c r="BC15" t="n">
-        <v>466409</v>
+        <v>466409.0</v>
       </c>
       <c r="BD15" t="n">
-        <v>1887743</v>
+        <v>1887743.0</v>
       </c>
       <c r="BE15" t="n">
-        <v>630552</v>
+        <v>630552.0</v>
       </c>
       <c r="BF15" t="n">
-        <v>613009</v>
+        <v>613009.0</v>
       </c>
       <c r="BG15" t="n">
-        <v>298455</v>
+        <v>298455.0</v>
       </c>
       <c r="BH15" t="n">
-        <v>4178701</v>
+        <v>4178701.0</v>
       </c>
       <c r="BI15" t="n">
-        <v>781913</v>
+        <v>781913.0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>4825230</v>
+        <v>4825230.0</v>
       </c>
       <c r="BK15" t="n">
-        <v>4202039</v>
+        <v>4202039.0</v>
       </c>
       <c r="BL15" t="n">
-        <v>2878667</v>
+        <v>2878667.0</v>
       </c>
       <c r="BM15" t="n">
-        <v>2218572</v>
+        <v>2218572.0</v>
       </c>
       <c r="BN15" t="n">
-        <v>3428002</v>
+        <v>3428002.0</v>
       </c>
       <c r="BO15" t="n">
-        <v>1122849</v>
+        <v>1122849.0</v>
       </c>
       <c r="BP15" t="n">
-        <v>4502808</v>
+        <v>4502808.0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>6563436</v>
+        <v>6563436.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>